--- a/output/df_conect.xlsx
+++ b/output/df_conect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\02. Mestrado\TU Darmstadt\Energy Science and Engineering\5. Sommersemester 2023\Masterarbeit\5. Thesis\3. Python Routine\masterthesis\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F17CD-454F-4E2B-8361-AFCC70252447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2783D30A-A031-4664-A01F-A1CB6E6E2A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -482,7 +482,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -499,8 +499,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/df_conect.xlsx
+++ b/output/df_conect.xlsx
@@ -14,51 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
-    <t>P_from_demand</t>
+    <t>demand1</t>
   </si>
   <si>
-    <t>P_from_net</t>
+    <t>net1</t>
   </si>
   <si>
-    <t>P_from_pv</t>
+    <t>pv1</t>
   </si>
   <si>
-    <t>P_from_bat</t>
+    <t>pv2</t>
   </si>
   <si>
-    <t>P_to_demand</t>
+    <t>bat1</t>
   </si>
   <si>
-    <t>P_to_net</t>
-  </si>
-  <si>
-    <t>P_to_pv</t>
-  </si>
-  <si>
-    <t>P_to_bat</t>
-  </si>
-  <si>
-    <t>P_net_demand</t>
-  </si>
-  <si>
-    <t>P_net_bat</t>
-  </si>
-  <si>
-    <t>P_pv_demand</t>
-  </si>
-  <si>
-    <t>P_pv_net</t>
-  </si>
-  <si>
-    <t>P_pv_bat</t>
-  </si>
-  <si>
-    <t>P_bat_demand</t>
-  </si>
-  <si>
-    <t>P_bat_net</t>
+    <t>bat2</t>
   </si>
 </sst>
 </file>
@@ -416,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,72 +408,148 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_conect.xlsx
+++ b/output/df_conect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>demand1</t>
   </si>
@@ -25,13 +25,7 @@
     <t>pv1</t>
   </si>
   <si>
-    <t>pv2</t>
-  </si>
-  <si>
     <t>bat1</t>
-  </si>
-  <si>
-    <t>bat2</t>
   </si>
 </sst>
 </file>
@@ -389,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,14 +402,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,16 +417,10 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,14 +436,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,14 +453,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -492,64 +462,12 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_conect.xlsx
+++ b/output/df_conect.xlsx
@@ -14,18 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>demand1</t>
-  </si>
-  <si>
-    <t>net1</t>
-  </si>
-  <si>
-    <t>pv1</t>
-  </si>
-  <si>
-    <t>bat1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>P_from_demand1</t>
+  </si>
+  <si>
+    <t>P_from_net1</t>
+  </si>
+  <si>
+    <t>P_from_pv1</t>
+  </si>
+  <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>P_to_demand1</t>
+  </si>
+  <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>P_to_pv1</t>
+  </si>
+  <si>
+    <t>P_to_bat1</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
+  </si>
+  <si>
+    <t>P_net1_bat1</t>
+  </si>
+  <si>
+    <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
+  </si>
+  <si>
+    <t>P_pv1_bat1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
   </si>
 </sst>
 </file>
@@ -405,24 +438,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -430,16 +463,16 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -456,16 +489,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/output/df_conect.xlsx
+++ b/output/df_conect.xlsx
@@ -14,14 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>P_from_demand1</t>
   </si>
   <si>
+    <t>P_from_demand2</t>
+  </si>
+  <si>
     <t>P_from_net1</t>
   </si>
   <si>
+    <t>P_from_net2</t>
+  </si>
+  <si>
     <t>P_from_pv1</t>
   </si>
   <si>
@@ -31,34 +37,58 @@
     <t>P_to_demand1</t>
   </si>
   <si>
+    <t>P_to_demand2</t>
+  </si>
+  <si>
     <t>P_to_net1</t>
   </si>
   <si>
+    <t>P_to_net2</t>
+  </si>
+  <si>
     <t>P_to_pv1</t>
   </si>
   <si>
     <t>P_to_bat1</t>
   </si>
   <si>
-    <t>P_net1_demand1</t>
+    <t>P_net1_demand2</t>
   </si>
   <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
+    <t>P_net2_demand1</t>
+  </si>
+  <si>
+    <t>P_net2_bat1</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
+    <t>P_pv1_demand2</t>
+  </si>
+  <si>
     <t>P_pv1_net1</t>
   </si>
   <si>
+    <t>P_pv1_net2</t>
+  </si>
+  <si>
     <t>P_pv1_bat1</t>
   </si>
   <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
+    <t>P_bat1_demand2</t>
+  </si>
+  <si>
     <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_net2</t>
   </si>
 </sst>
 </file>
@@ -416,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,72 +465,148 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_conect.xlsx
+++ b/output/df_conect.xlsx
@@ -14,20 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>P_from_demand1</t>
   </si>
   <si>
-    <t>P_from_demand2</t>
-  </si>
-  <si>
     <t>P_from_net1</t>
   </si>
   <si>
-    <t>P_from_net2</t>
-  </si>
-  <si>
     <t>P_from_pv1</t>
   </si>
   <si>
@@ -37,58 +31,34 @@
     <t>P_to_demand1</t>
   </si>
   <si>
-    <t>P_to_demand2</t>
-  </si>
-  <si>
     <t>P_to_net1</t>
   </si>
   <si>
-    <t>P_to_net2</t>
-  </si>
-  <si>
     <t>P_to_pv1</t>
   </si>
   <si>
     <t>P_to_bat1</t>
   </si>
   <si>
-    <t>P_net1_demand2</t>
+    <t>P_net1_demand1</t>
   </si>
   <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
-    <t>P_net2_demand1</t>
-  </si>
-  <si>
-    <t>P_net2_bat1</t>
-  </si>
-  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
-    <t>P_pv1_demand2</t>
-  </si>
-  <si>
     <t>P_pv1_net1</t>
   </si>
   <si>
-    <t>P_pv1_net2</t>
-  </si>
-  <si>
     <t>P_pv1_bat1</t>
   </si>
   <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
-    <t>P_bat1_demand2</t>
-  </si>
-  <si>
     <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>P_bat1_net2</t>
   </si>
 </sst>
 </file>
@@ -446,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,148 +435,72 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
         <v>0</v>
       </c>
     </row>
